--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>426566.6153249823</v>
+        <v>424184.6199798016</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>208.2578521948494</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,13 +713,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>34.86296951216382</v>
+        <v>292.3172609502579</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.62050764638148</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>75.27088892250312</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>326.4523041199399</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>228.1910895014597</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>40.87152028304765</v>
+        <v>181.9878824748403</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>111.9946590844276</v>
+        <v>9.257203903026578</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>68.89307566964847</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>136.4787113483953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695258</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>167.6990352380504</v>
+        <v>273.8010520452863</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695258</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,10 +1777,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>59.9792553804625</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>173.5281066624688</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206807</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,16 +2002,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>63.85442562459952</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>136.4226250355559</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>39.83255574579352</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986287</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>152.869792043103</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>3.063623429018965e-12</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.831980181942</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,13 +2485,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>71.79687029690528</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>133.8107367464748</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182141</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>74.20064764874429</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>105.6507867899551</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>54.32649042089668</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>85.08368458989425</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,10 +3247,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>227.342275472664</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>114.5285626279046</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
-        <v>72.97607332171656</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3907,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>160.6285048151955</v>
+        <v>220.6346102953135</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4147,13 +4147,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>246.6599694082659</v>
       </c>
       <c r="V46" t="n">
-        <v>247.6310136071102</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1934.208022973022</v>
+        <v>1067.854051140286</v>
       </c>
       <c r="C2" t="n">
-        <v>1934.208022973022</v>
+        <v>698.8915341998747</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993393</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V2" t="n">
-        <v>3084.412953274035</v>
+        <v>2570.827636711414</v>
       </c>
       <c r="W2" t="n">
-        <v>3084.412953274035</v>
+        <v>2218.0589814413</v>
       </c>
       <c r="X2" t="n">
-        <v>2710.947195012955</v>
+        <v>1844.59322318022</v>
       </c>
       <c r="Y2" t="n">
-        <v>2320.807863037144</v>
+        <v>1454.453891204408</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080129</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.7293032143256</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C4" t="n">
-        <v>212.7293032143256</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143256</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
@@ -4495,43 +4495,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T4" t="n">
-        <v>507.4345062145372</v>
+        <v>844.8558048863637</v>
       </c>
       <c r="U4" t="n">
-        <v>507.4345062145372</v>
+        <v>844.8558048863637</v>
       </c>
       <c r="V4" t="n">
-        <v>252.7500180086504</v>
+        <v>844.8558048863637</v>
       </c>
       <c r="W4" t="n">
-        <v>252.7500180086504</v>
+        <v>844.8558048863637</v>
       </c>
       <c r="X4" t="n">
-        <v>252.7500180086504</v>
+        <v>616.8662539883463</v>
       </c>
       <c r="Y4" t="n">
-        <v>252.7500180086504</v>
+        <v>396.0736748448163</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1944.904841306683</v>
+        <v>1561.900772669912</v>
       </c>
       <c r="C5" t="n">
-        <v>1575.942324366272</v>
+        <v>1561.900772669912</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1561.900772669912</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3095.109771607697</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>3095.109771607697</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W5" t="n">
-        <v>3095.109771607697</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2721.644013346617</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="Y5" t="n">
-        <v>2331.504681370805</v>
+        <v>1561.900772669912</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>697.9541770656748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C7" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U7" t="n">
-        <v>879.6026418959145</v>
+        <v>515.2942464737309</v>
       </c>
       <c r="V7" t="n">
-        <v>879.6026418959145</v>
+        <v>515.2942464737309</v>
       </c>
       <c r="W7" t="n">
-        <v>879.6026418959145</v>
+        <v>515.2942464737309</v>
       </c>
       <c r="X7" t="n">
-        <v>879.6026418959145</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y7" t="n">
-        <v>879.6026418959145</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.723851760223</v>
+        <v>1901.535346136984</v>
       </c>
       <c r="C8" t="n">
-        <v>1380.761334819812</v>
+        <v>1532.572829196573</v>
       </c>
       <c r="D8" t="n">
-        <v>1022.495636213061</v>
+        <v>1174.307130589822</v>
       </c>
       <c r="E8" t="n">
-        <v>636.7073836148168</v>
+        <v>788.5188779915779</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4823,31 +4823,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.097597267229</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W8" t="n">
-        <v>2513.328941997115</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="X8" t="n">
-        <v>2139.863183736035</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="Y8" t="n">
-        <v>1749.723851760223</v>
+        <v>2288.135186201106</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>528.3452334219998</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C10" t="n">
-        <v>528.3452334219998</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D10" t="n">
-        <v>528.3452334219998</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962294</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596508</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588487</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886963</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068862</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.966238459645</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757138</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757138</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757138</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757138</v>
       </c>
       <c r="V10" t="n">
-        <v>666.202517612298</v>
+        <v>761.4675832528366</v>
       </c>
       <c r="W10" t="n">
-        <v>666.202517612298</v>
+        <v>761.4675832528366</v>
       </c>
       <c r="X10" t="n">
-        <v>666.202517612298</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="Y10" t="n">
-        <v>528.3452334219998</v>
+        <v>533.4780323548192</v>
       </c>
     </row>
     <row r="11">
@@ -5033,19 +5033,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5054,16 +5054,16 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5106,40 +5106,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797182</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>184.7035232280597</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>680.0291294438182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438182</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998425</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6605733532801</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7243904253733</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>140.7528025687995</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K13" t="n">
-        <v>296.765736413132</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L13" t="n">
-        <v>526.3143760629331</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M13" t="n">
-        <v>771.5995144936164</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N13" t="n">
         <v>1018.909846477608</v>
@@ -5218,31 +5218,31 @@
         <v>1386.046835377027</v>
       </c>
       <c r="Q13" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R13" t="n">
-        <v>1373.509837562354</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S13" t="n">
-        <v>1190.655003217259</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T13" t="n">
-        <v>971.0535382401997</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U13" t="n">
-        <v>971.0535382401997</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="V13" t="n">
-        <v>971.0535382401997</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="W13" t="n">
-        <v>801.6605733532801</v>
+        <v>1163.98882207229</v>
       </c>
       <c r="X13" t="n">
-        <v>801.6605733532801</v>
+        <v>935.9992711742725</v>
       </c>
       <c r="Y13" t="n">
-        <v>801.6605733532801</v>
+        <v>715.2066920307424</v>
       </c>
     </row>
     <row r="14">
@@ -5258,49 +5258,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192586</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5343,37 +5343,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756265</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021781</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996071</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.972636491139</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>388.6197041282753</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>388.6197041282753</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797182</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797182</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>140.7528025687995</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K16" t="n">
-        <v>296.765736413132</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L16" t="n">
-        <v>526.3143760629332</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M16" t="n">
-        <v>771.5995144936165</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N16" t="n">
         <v>1018.909846477608</v>
@@ -5455,31 +5455,31 @@
         <v>1386.046835377027</v>
       </c>
       <c r="Q16" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R16" t="n">
-        <v>1440.555541309952</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="S16" t="n">
-        <v>1379.97043486504</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="T16" t="n">
-        <v>1160.368969887982</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="U16" t="n">
-        <v>871.2937432321795</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="V16" t="n">
-        <v>616.6092550262927</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="W16" t="n">
-        <v>616.6092550262927</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="X16" t="n">
-        <v>388.6197041282753</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="Y16" t="n">
-        <v>388.6197041282753</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5504,22 +5504,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5531,34 +5531,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273898</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239595</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>429.5088224239595</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1026.887310050511</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1654.485273605118</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2206.395003844405</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>140.7528025687995</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K19" t="n">
-        <v>296.7657364131321</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L19" t="n">
-        <v>526.3143760629332</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M19" t="n">
-        <v>771.5995144936165</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N19" t="n">
         <v>1018.909846477608</v>
@@ -5692,31 +5692,31 @@
         <v>1386.046835377027</v>
       </c>
       <c r="Q19" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R19" t="n">
-        <v>1376.056121487124</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S19" t="n">
-        <v>1376.056121487124</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T19" t="n">
-        <v>1156.454656510065</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U19" t="n">
-        <v>1156.454656510065</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="V19" t="n">
-        <v>1156.454656510065</v>
+        <v>611.2233839829498</v>
       </c>
       <c r="W19" t="n">
-        <v>1156.454656510065</v>
+        <v>321.8062139459892</v>
       </c>
       <c r="X19" t="n">
-        <v>928.4651056120481</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="Y19" t="n">
-        <v>707.672526468518</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
     <row r="20">
@@ -5744,25 +5744,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.584050252739</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>95.584050252739</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>95.584050252739</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>692.9625378792906</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1320.560501433897</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>874.868625753639</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2225.503448475993</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1936.428221820191</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.428221820188</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6008,31 +6008,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>214.9229991561138</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>214.9229991561138</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>800.5007694647229</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C25" t="n">
-        <v>631.564586536816</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D25" t="n">
-        <v>481.4479471244803</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>333.5348535420871</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>333.5348535420871</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3387542569671</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6172,25 +6172,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373476</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1430.931364336515</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>1202.941813438498</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1492342949674</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>802.9288273958734</v>
+        <v>1098.667160263528</v>
       </c>
       <c r="C28" t="n">
-        <v>633.9926444679666</v>
+        <v>929.7309773356212</v>
       </c>
       <c r="D28" t="n">
-        <v>483.8760050556308</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>335.9629114732377</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2273.199413378163</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378163</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378163</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>2018.514925172276</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1729.097755135315</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369643</v>
+        <v>1501.108204237298</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.5772922261132</v>
+        <v>1280.315625093768</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>184.7035232280589</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925216</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>296.7882229101285</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6692,19 +6692,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6716,34 +6716,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>868.6673633290469</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>699.73118040114</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888043</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6895,13 +6895,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1271.108407302817</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1271.108407302817</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>1050.315828159287</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6920,25 +6920,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,22 +6950,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7023,19 +7023,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>982.1492342949674</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>813.2130513670605</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1492342949674</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7557007032921</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>482.6390612909563</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>334.7259677085632</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>334.7259677085632</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>167.5298684234431</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>868.6673633290469</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>699.73118040114</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1815.210065545664</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V43" t="n">
-        <v>1560.525577339777</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W43" t="n">
-        <v>1271.108407302817</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X43" t="n">
-        <v>1271.108407302817</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>1050.315828159287</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,55 +7780,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
         <v>2264.108249235165</v>
@@ -7837,19 +7837,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1795.355300007332</v>
       </c>
       <c r="V46" t="n">
-        <v>1505.299220625425</v>
+        <v>1540.670811801445</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1251.253641764485</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
   </sheetData>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>35.43499751987695</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22708,7 +22708,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>117.5260751075633</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.756905814749189e-12</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -23476,13 +23476,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>118.8239630985406</v>
+        <v>12.72194629130473</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.728484105318785e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>121.0470306211821</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892458</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>45.056546689626</v>
       </c>
     </row>
     <row r="17">
@@ -23890,16 +23890,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>2.520821085529711</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>115.7150182882721</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>139.9994244361438</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,16 +24175,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>64.53565828418522</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24373,13 +24373,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>68.49784254931861</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24412,10 +24412,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>84.77391660562003</v>
       </c>
     </row>
     <row r="26">
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>71.22040037418695</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>75.37549921168947</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922705</v>
       </c>
       <c r="H31" t="n">
-        <v>84.77391660562006</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24886,7 +24886,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>55.21102825632964</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,10 +25135,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>59.18072286392697</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>34.08691039030774</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
-        <v>67.31863952450733</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25795,13 +25795,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>125.5559695740486</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>39.52450498097829</v>
       </c>
       <c r="V46" t="n">
-        <v>4.506629716717754</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>998623.8045192213</v>
+        <v>998623.8045192218</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>998623.8045192213</v>
+        <v>998623.8045192217</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>998623.8045192214</v>
+        <v>998623.8045192215</v>
       </c>
     </row>
     <row r="8">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388655.0434293082</v>
+        <v>388655.0434293079</v>
       </c>
       <c r="C2" t="n">
         <v>389994.8406855345</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855344</v>
+        <v>389994.8406855345</v>
       </c>
       <c r="E2" t="n">
         <v>372036.3193306903</v>
@@ -26326,10 +26326,10 @@
         <v>372036.3193306903</v>
       </c>
       <c r="G2" t="n">
-        <v>372036.3193306904</v>
+        <v>372036.3193306903</v>
       </c>
       <c r="H2" t="n">
-        <v>383394.6348527531</v>
+        <v>383394.634852753</v>
       </c>
       <c r="I2" t="n">
         <v>383394.634852753</v>
@@ -26338,19 +26338,19 @@
         <v>383394.634852753</v>
       </c>
       <c r="K2" t="n">
+        <v>383394.634852753</v>
+      </c>
+      <c r="L2" t="n">
+        <v>383394.6348527529</v>
+      </c>
+      <c r="M2" t="n">
+        <v>383394.6348527527</v>
+      </c>
+      <c r="N2" t="n">
+        <v>383394.6348527529</v>
+      </c>
+      <c r="O2" t="n">
         <v>383394.6348527528</v>
-      </c>
-      <c r="L2" t="n">
-        <v>383394.634852753</v>
-      </c>
-      <c r="M2" t="n">
-        <v>383394.634852753</v>
-      </c>
-      <c r="N2" t="n">
-        <v>383394.634852753</v>
-      </c>
-      <c r="O2" t="n">
-        <v>383394.6348527529</v>
       </c>
       <c r="P2" t="n">
         <v>383394.6348527528</v>
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073546</v>
+        <v>325412.4618073547</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551161</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91986.82376344092</v>
+        <v>91986.82376344049</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="E4" t="n">
-        <v>761.3882086835449</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="F4" t="n">
-        <v>761.388208683545</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="G4" t="n">
-        <v>761.388208683545</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="H4" t="n">
         <v>16046.58397189197</v>
@@ -26439,16 +26439,16 @@
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
+        <v>16046.58397189201</v>
+      </c>
+      <c r="M4" t="n">
         <v>16046.58397189197</v>
-      </c>
-      <c r="M4" t="n">
-        <v>16046.58397189204</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1140010.466623119</v>
+        <v>-1140017.518187625</v>
       </c>
       <c r="C6" t="n">
         <v>188464.1560200887</v>
       </c>
       <c r="D6" t="n">
-        <v>188464.1560200886</v>
+        <v>188464.1560200883</v>
       </c>
       <c r="E6" t="n">
-        <v>-55260.06050925493</v>
+        <v>-55354.57904270164</v>
       </c>
       <c r="F6" t="n">
-        <v>270152.4012980995</v>
+        <v>270057.8827646531</v>
       </c>
       <c r="G6" t="n">
-        <v>270152.4012980998</v>
+        <v>270057.8827646531</v>
       </c>
       <c r="H6" t="n">
-        <v>266225.5210569541</v>
+        <v>266190.7831315182</v>
       </c>
       <c r="I6" t="n">
-        <v>266225.5210569537</v>
+        <v>266190.7831315182</v>
       </c>
       <c r="J6" t="n">
-        <v>48694.31865967634</v>
+        <v>48659.58073424068</v>
       </c>
       <c r="K6" t="n">
-        <v>266225.5210569537</v>
+        <v>266190.7831315182</v>
       </c>
       <c r="L6" t="n">
-        <v>266225.5210569539</v>
+        <v>266190.7831315181</v>
       </c>
       <c r="M6" t="n">
-        <v>181170.4931214423</v>
+        <v>181135.7551960062</v>
       </c>
       <c r="N6" t="n">
-        <v>266225.5210569539</v>
+        <v>266190.7831315181</v>
       </c>
       <c r="O6" t="n">
-        <v>266225.5210569538</v>
+        <v>266190.783131518</v>
       </c>
       <c r="P6" t="n">
-        <v>266225.5210569536</v>
+        <v>266190.783131518</v>
       </c>
     </row>
   </sheetData>
@@ -26741,10 +26741,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>146.4251894258335</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>292.8892889579711</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>140.2114725355558</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>31.08939791064903</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,7 +27552,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27585,25 +27585,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>144.2780603536661</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>55.47806595232186</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>22.80408245744226</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27825,10 +27825,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>245.3403179225652</v>
+        <v>104.2239557307726</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>294.8813866572839</v>
+        <v>397.6188418386848</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28068,16 +28068,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>183.2445676541795</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>82.10594200369948</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-5.25812187936948e-12</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -28849,13 +28849,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29016,7 +29016,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>-7.805184061879151e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-2.430161791044281e-12</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I8" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987471</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>229.6463482471751</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.1723312270676</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,28 +32309,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>484.14237126925</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,10 +32339,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>687.0167715190042</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>247.3820194983584</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,25 +33029,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>227.8611086463993</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,28 +33500,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>704.1404939038099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>301.6445156724565</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33971,7 +33971,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>688.4205792103725</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34135,7 +34135,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>297.1808238847177</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,16 +34220,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>198.560797075695</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127256</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034295</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966713</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840383</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106942</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014226</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>91.80490927281609</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789205</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.41024194022997</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K13" t="n">
-        <v>157.5888220649823</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L13" t="n">
-        <v>231.8673127775769</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M13" t="n">
-        <v>247.7627660915993</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N13" t="n">
-        <v>249.8084161454455</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O13" t="n">
-        <v>210.2202333401628</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P13" t="n">
-        <v>160.6252099925837</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.05929892214681</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.1905571410461</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.41024194022999</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K16" t="n">
         <v>157.5888220649824</v>
@@ -35811,19 +35811,19 @@
         <v>231.867312777577</v>
       </c>
       <c r="M16" t="n">
-        <v>247.7627660915994</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N16" t="n">
         <v>249.8084161454456</v>
       </c>
       <c r="O16" t="n">
-        <v>210.2202333401628</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P16" t="n">
         <v>160.6252099925838</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.05929892214687</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>350.1679638549197</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>47.41024194022999</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K19" t="n">
         <v>157.5888220649824</v>
@@ -36048,19 +36048,19 @@
         <v>231.867312777577</v>
       </c>
       <c r="M19" t="n">
-        <v>247.7627660915994</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N19" t="n">
         <v>249.8084161454456</v>
       </c>
       <c r="O19" t="n">
-        <v>210.2202333401628</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P19" t="n">
         <v>160.6252099925838</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.05929892214687</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>544.4205270745598</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>120.5443928316917</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>90.01966967204031</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>572.7987818204766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>159.048271228012</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37619,7 +37619,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>545.824334765928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>159.3393849103587</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,16 +37868,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>55.96455263125056</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
